--- a/biology/Médecine/Fondation_Louis-Jeantet/Fondation_Louis-Jeantet.xlsx
+++ b/biology/Médecine/Fondation_Louis-Jeantet/Fondation_Louis-Jeantet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation Louis-Jeantet est une fondation créée en 1983 et basée à Genève. Elle a pour but de faire avancer la médecine en soutenant la recherche biomédicale européenne.
 Elle a été créée grâce au legs de Louis Jeantet, né à Paris en 1897 et décédé à Genève en 1981. Fils de Félix Jeantet et frère de Claude et Gabriel Jeantet, et homme d'affaires a fait fortune en France dans le secteur automobile et pneumatique. Il s'installe à Genève en 1936 et consacre le reste de sa vie à la gestion de sa fortune. C'est en 1966 que naît la volonté de Louis Jeantet de léguer sa fortune à la création d'une fondation qui porterait son nom et qui verrait le jour après sa mort. Il travaillera à ce projet jusqu'en 1979, définissant les aspects juridiques, administratifs et scientifiques.
@@ -512,10 +524,12 @@
           <t>Prix Louis-Jeantet de médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Depuis 1986, la Fondation Louis-Jeantet décerne chaque année le Prix Louis-Jeantet de médecine. Ce prix est destiné à des chercheuses et chercheurs européens et vise avant tout à encourager et soutenir la recherche biomédicale et non à consacrer une carrière scientifique.
-À ce jour, le Prix Louis-Jeantet de médecine a été décerné à 86 lauréates et lauréats[1] :
+À ce jour, le Prix Louis-Jeantet de médecine a été décerné à 86 lauréates et lauréats :
 1986 : Michael Berridge, Désiré Collen et Luc Montagnier
 1987 : Sydney Brenner, Walter J. Gehring et Dominique Stehelin
 1988 : Bert Sakmann, John J. Skehel et Rolf M. Zinkernagel
@@ -542,10 +556,10 @@
 2009 : Michael N. Hall et Peter J. Ratcliffe
 2010 : Michel Haïssaguerre et Austin Smith (biologist) (en)
 2011 : Stefan Jentsch (de)ainsi qu'Edvard Moser et May-Britt Moser
-2012 : Matthias Mann (de) et Fiona Powrie (en)[2]
+2012 : Matthias Mann (de) et Fiona Powrie (en)
 2013 : Michael Stratton (en)  ainsi que Peter Hegemann (en) et Georg Nagel (Botaniker) (de)
 2014 : Elena Conti et Denis Le Bihan
-2015 : Emmanuelle Charpentier[3] et Rudolf Zechner (de)[4]
+2015 : Emmanuelle Charpentier et Rudolf Zechner (de)
 2016: Andrea Ballabio et John Diffley
 2017 : Silvia Arber et Caetano Reis e Sousa
 2018 : Christer Betsholtz et Antonio Lanzavecchia
